--- a/data/pca/factorExposure/factorExposure_2013-01-31.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-01-31.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.001185502198757572</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.001817914567690512</v>
+      </c>
+      <c r="C2">
+        <v>-0.03240842202363448</v>
+      </c>
+      <c r="D2">
+        <v>-0.005510238103406475</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.0002934433677598862</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.00632869384151239</v>
+      </c>
+      <c r="C4">
+        <v>-0.08467806123355996</v>
+      </c>
+      <c r="D4">
+        <v>-0.07892431188656271</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.0003161907977532099</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01420584511975939</v>
+      </c>
+      <c r="C6">
+        <v>-0.1139322029757713</v>
+      </c>
+      <c r="D6">
+        <v>-0.03376088914007149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.00207410249481436</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.005042618614000414</v>
+      </c>
+      <c r="C7">
+        <v>-0.05747127847601641</v>
+      </c>
+      <c r="D7">
+        <v>-0.03615627779185826</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.0008663170950310354</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005811432611197963</v>
+      </c>
+      <c r="C8">
+        <v>-0.03840994305280746</v>
+      </c>
+      <c r="D8">
+        <v>-0.04558511895174362</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.003205109794388677</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.004461371076711532</v>
+      </c>
+      <c r="C9">
+        <v>-0.07070681030416801</v>
+      </c>
+      <c r="D9">
+        <v>-0.07122896491838081</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.002297487626558271</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005345540702148725</v>
+      </c>
+      <c r="C10">
+        <v>-0.05750397037297472</v>
+      </c>
+      <c r="D10">
+        <v>0.1981480720922854</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.002486298827735374</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005765735449601402</v>
+      </c>
+      <c r="C11">
+        <v>-0.08069617159465778</v>
+      </c>
+      <c r="D11">
+        <v>-0.06015340945439802</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.000546300076411166</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.004068287957654179</v>
+      </c>
+      <c r="C12">
+        <v>-0.06420869645745603</v>
+      </c>
+      <c r="D12">
+        <v>-0.04721026679519566</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.002515865950895306</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.00875915545867682</v>
+      </c>
+      <c r="C13">
+        <v>-0.06551888890658715</v>
+      </c>
+      <c r="D13">
+        <v>-0.06361272173015388</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.0009483594777430729</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.00161554916208182</v>
+      </c>
+      <c r="C14">
+        <v>-0.04629309872708655</v>
+      </c>
+      <c r="D14">
+        <v>-0.006921713889193857</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.0007980091840005506</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.006071252166434822</v>
+      </c>
+      <c r="C15">
+        <v>-0.04314307713617537</v>
+      </c>
+      <c r="D15">
+        <v>-0.02760400861882626</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.0008358063875828245</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.005080928659646823</v>
+      </c>
+      <c r="C16">
+        <v>-0.06586580100896949</v>
+      </c>
+      <c r="D16">
+        <v>-0.04651043326817436</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>-1.222337344135893e-05</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.008874012173625392</v>
+      </c>
+      <c r="C20">
+        <v>-0.06543426822499544</v>
+      </c>
+      <c r="D20">
+        <v>-0.04365191704475181</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005518271270918075</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.0100207861529619</v>
+      </c>
+      <c r="C21">
+        <v>-0.02172803042176177</v>
+      </c>
+      <c r="D21">
+        <v>-0.03699727168864821</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01644738544669634</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.006749177722636939</v>
+      </c>
+      <c r="C22">
+        <v>-0.09481637248970885</v>
+      </c>
+      <c r="D22">
+        <v>-0.1071063921544455</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01674918467487823</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.00656745026306487</v>
+      </c>
+      <c r="C23">
+        <v>-0.09560774863116253</v>
+      </c>
+      <c r="D23">
+        <v>-0.1071916720315885</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.001261868646133858</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.005451524282694934</v>
+      </c>
+      <c r="C24">
+        <v>-0.07641681325043982</v>
+      </c>
+      <c r="D24">
+        <v>-0.06086981388126739</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.003859323678512102</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.003005021269883647</v>
+      </c>
+      <c r="C25">
+        <v>-0.07822575185083931</v>
+      </c>
+      <c r="D25">
+        <v>-0.06612465660619966</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.004766283073493054</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003642565880470558</v>
+      </c>
+      <c r="C26">
+        <v>-0.04179900000126043</v>
+      </c>
+      <c r="D26">
+        <v>-0.02126410456435722</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.0061808701023653</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.001074123152176225</v>
+      </c>
+      <c r="C28">
+        <v>-0.1061338283040426</v>
+      </c>
+      <c r="D28">
+        <v>0.3159988834187899</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.0009590263455619876</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.003204896079750336</v>
+      </c>
+      <c r="C29">
+        <v>-0.04954283981354241</v>
+      </c>
+      <c r="D29">
+        <v>-0.004585564012835091</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.003308852560968103</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.009517392641907584</v>
+      </c>
+      <c r="C30">
+        <v>-0.142671408478976</v>
+      </c>
+      <c r="D30">
+        <v>-0.09294933916898174</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.001182927183743919</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006242665071404107</v>
+      </c>
+      <c r="C31">
+        <v>-0.04481814563475847</v>
+      </c>
+      <c r="D31">
+        <v>-0.03031129798198503</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0006166822326313319</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.004149189959923331</v>
+      </c>
+      <c r="C32">
+        <v>-0.04115291918932786</v>
+      </c>
+      <c r="D32">
+        <v>-0.01958851392676032</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.002420827284885996</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.008351385308957309</v>
+      </c>
+      <c r="C33">
+        <v>-0.0861114883016466</v>
+      </c>
+      <c r="D33">
+        <v>-0.06840503350019622</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.004228563738107714</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.003978579362315732</v>
+      </c>
+      <c r="C34">
+        <v>-0.05810394951607337</v>
+      </c>
+      <c r="D34">
+        <v>-0.05311122370100993</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.001842888533248324</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.004971588029900212</v>
+      </c>
+      <c r="C35">
+        <v>-0.04074595928492461</v>
+      </c>
+      <c r="D35">
+        <v>-0.01662927242952791</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.003763472876759702</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001134495841687923</v>
+      </c>
+      <c r="C36">
+        <v>-0.02447426195465023</v>
+      </c>
+      <c r="D36">
+        <v>-0.02241809710609674</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.00227021854910976</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009514530285507791</v>
+      </c>
+      <c r="C38">
+        <v>-0.03577864992876209</v>
+      </c>
+      <c r="D38">
+        <v>-0.01508039888197432</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01154716384571234</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.0005466660918407096</v>
+      </c>
+      <c r="C39">
+        <v>-0.1165715806566904</v>
+      </c>
+      <c r="D39">
+        <v>-0.07085079062976125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.009687484742198551</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.0026084171173685</v>
+      </c>
+      <c r="C40">
+        <v>-0.08835385635584275</v>
+      </c>
+      <c r="D40">
+        <v>-0.01847202712185057</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.0001146859682397326</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007208425850749448</v>
+      </c>
+      <c r="C41">
+        <v>-0.03807843491060184</v>
+      </c>
+      <c r="D41">
+        <v>-0.0336855634928958</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.002775344004988405</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.003980157302866988</v>
+      </c>
+      <c r="C43">
+        <v>-0.05305060363082056</v>
+      </c>
+      <c r="D43">
+        <v>-0.02330835040184071</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.004232161464573382</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003400110087784291</v>
+      </c>
+      <c r="C44">
+        <v>-0.1099119228787096</v>
+      </c>
+      <c r="D44">
+        <v>-0.06909658268713555</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.001013814759624106</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002229730412237617</v>
+      </c>
+      <c r="C46">
+        <v>-0.03383551843479853</v>
+      </c>
+      <c r="D46">
+        <v>-0.03251921219325833</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.0004151607959174103</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002673778054479146</v>
+      </c>
+      <c r="C47">
+        <v>-0.03706697851612636</v>
+      </c>
+      <c r="D47">
+        <v>-0.0225405884053265</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.003724405079251748</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006572586915249225</v>
+      </c>
+      <c r="C48">
+        <v>-0.03018244590823755</v>
+      </c>
+      <c r="D48">
+        <v>-0.03143028562863334</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.0120120335828191</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01525249038066876</v>
+      </c>
+      <c r="C49">
+        <v>-0.1833295376439848</v>
+      </c>
+      <c r="D49">
+        <v>-0.01201118905934663</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.001477743557608599</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003629924762922552</v>
+      </c>
+      <c r="C50">
+        <v>-0.04383494998164504</v>
+      </c>
+      <c r="D50">
+        <v>-0.03382291848942135</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.0008818562148815792</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004490126580559201</v>
+      </c>
+      <c r="C51">
+        <v>-0.02719209020435534</v>
+      </c>
+      <c r="D51">
+        <v>-0.01835099990805387</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.0008245378397867914</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02080285376769518</v>
+      </c>
+      <c r="C53">
+        <v>-0.1691093677530539</v>
+      </c>
+      <c r="D53">
+        <v>-0.02872574217538999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.00139654453741143</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008700555708064691</v>
+      </c>
+      <c r="C54">
+        <v>-0.05522658760954481</v>
+      </c>
+      <c r="D54">
+        <v>-0.04235627902642182</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.003758372714927556</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009448017181052017</v>
+      </c>
+      <c r="C55">
+        <v>-0.1085754317682494</v>
+      </c>
+      <c r="D55">
+        <v>-0.03971623273007456</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.002840256560348728</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.02004229481153316</v>
+      </c>
+      <c r="C56">
+        <v>-0.1745992092727061</v>
+      </c>
+      <c r="D56">
+        <v>-0.02898275417278101</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.00675710921736298</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01972402464837023</v>
+      </c>
+      <c r="C58">
+        <v>-0.1109428760810683</v>
+      </c>
+      <c r="D58">
+        <v>-0.05249932447921477</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.006897418749627985</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.009587179722982848</v>
+      </c>
+      <c r="C59">
+        <v>-0.1613129319688558</v>
+      </c>
+      <c r="D59">
+        <v>0.3157055677378834</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.00386533588530045</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02375857940656888</v>
+      </c>
+      <c r="C60">
+        <v>-0.2204932346179431</v>
+      </c>
+      <c r="D60">
+        <v>-0.03361116827824723</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01351431764113892</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.001673453058757434</v>
+      </c>
+      <c r="C61">
+        <v>-0.09601665903969986</v>
+      </c>
+      <c r="D61">
+        <v>-0.05722067864582525</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1638213909324618</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1447593330260188</v>
+      </c>
+      <c r="C62">
+        <v>-0.09247832693217774</v>
+      </c>
+      <c r="D62">
+        <v>-0.04606168792944599</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.0009351712741235334</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006276641298347032</v>
+      </c>
+      <c r="C63">
+        <v>-0.0553996093684746</v>
+      </c>
+      <c r="D63">
+        <v>-0.02424980488250541</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.0002784891693353057</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01535740938143634</v>
+      </c>
+      <c r="C64">
+        <v>-0.1051527032759203</v>
+      </c>
+      <c r="D64">
+        <v>-0.0599472549232297</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.002896015396559383</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01799253331241447</v>
+      </c>
+      <c r="C65">
+        <v>-0.1234192704904664</v>
+      </c>
+      <c r="D65">
+        <v>-0.01909977807012276</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.00742921741613979</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01311550397926621</v>
+      </c>
+      <c r="C66">
+        <v>-0.1607684444002742</v>
+      </c>
+      <c r="D66">
+        <v>-0.1126995197860944</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.003619612421681484</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01569175882502203</v>
+      </c>
+      <c r="C67">
+        <v>-0.06658392870999942</v>
+      </c>
+      <c r="D67">
+        <v>-0.02479994126613422</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.006612408252924852</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.0005061043803647453</v>
+      </c>
+      <c r="C68">
+        <v>-0.08622371807627729</v>
+      </c>
+      <c r="D68">
+        <v>0.2562657853023091</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.002169385732892574</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.006193983782216859</v>
+      </c>
+      <c r="C69">
+        <v>-0.05061101140158231</v>
+      </c>
+      <c r="D69">
+        <v>-0.03726297563867519</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0.0002792971285084543</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001914425740585704</v>
+      </c>
+      <c r="C70">
+        <v>-0.002770030592892703</v>
+      </c>
+      <c r="D70">
+        <v>-0.003049156272460842</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.0007142112164365006</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.005798480481503821</v>
+      </c>
+      <c r="C71">
+        <v>-0.09631954319537889</v>
+      </c>
+      <c r="D71">
+        <v>0.3062565492003615</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.003824104855543703</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01602673412492423</v>
+      </c>
+      <c r="C72">
+        <v>-0.1534648892905916</v>
+      </c>
+      <c r="D72">
+        <v>-0.02177677257069753</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.01125520763109589</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.03074256404066695</v>
+      </c>
+      <c r="C73">
+        <v>-0.2786505886360665</v>
+      </c>
+      <c r="D73">
+        <v>-0.05171138603764788</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.004534319839690927</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.001951588665531025</v>
+      </c>
+      <c r="C74">
+        <v>-0.1049924044139167</v>
+      </c>
+      <c r="D74">
+        <v>-0.03604446083078608</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.002457067938086764</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01097102912618957</v>
+      </c>
+      <c r="C75">
+        <v>-0.1256409284820625</v>
+      </c>
+      <c r="D75">
+        <v>-0.02224961760392949</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.009624400112253238</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02176063308907927</v>
+      </c>
+      <c r="C76">
+        <v>-0.1489750429947025</v>
+      </c>
+      <c r="D76">
+        <v>-0.05973974314356766</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.00109283961943802</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02389942371216857</v>
+      </c>
+      <c r="C77">
+        <v>-0.1289156719358499</v>
+      </c>
+      <c r="D77">
+        <v>-0.08918289839712333</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.0004595442440001885</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01476931597355814</v>
+      </c>
+      <c r="C78">
+        <v>-0.09700079093714804</v>
+      </c>
+      <c r="D78">
+        <v>-0.06931797878873659</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.0228143705048168</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03757543117380283</v>
+      </c>
+      <c r="C79">
+        <v>-0.1548691132553639</v>
+      </c>
+      <c r="D79">
+        <v>-0.03396955657796839</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.006570788164400546</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01048401035942003</v>
+      </c>
+      <c r="C80">
+        <v>-0.04097652218320429</v>
+      </c>
+      <c r="D80">
+        <v>-0.02948809881500102</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.001309034655287186</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01536415896674716</v>
+      </c>
+      <c r="C81">
+        <v>-0.1276320861911426</v>
+      </c>
+      <c r="D81">
+        <v>-0.03824401762139562</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.005764839411224666</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.01979727114963608</v>
+      </c>
+      <c r="C82">
+        <v>-0.1409623128413696</v>
+      </c>
+      <c r="D82">
+        <v>-0.04159493431671833</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.008226133439197366</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.01007885380982765</v>
+      </c>
+      <c r="C83">
+        <v>-0.05679242654635421</v>
+      </c>
+      <c r="D83">
+        <v>-0.05712270783570902</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01335446303806875</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.0116857994036143</v>
+      </c>
+      <c r="C84">
+        <v>-0.03661118353515663</v>
+      </c>
+      <c r="D84">
+        <v>0.01086949227101679</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01350715866705731</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02820735116362914</v>
+      </c>
+      <c r="C85">
+        <v>-0.1239564004724095</v>
+      </c>
+      <c r="D85">
+        <v>-0.04392318459835</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.001683682186070975</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.006038881148994077</v>
+      </c>
+      <c r="C86">
+        <v>-0.05075596546048317</v>
+      </c>
+      <c r="D86">
+        <v>-0.02120996271229358</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.004063097721095944</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01019618544052492</v>
+      </c>
+      <c r="C87">
+        <v>-0.1302929668635607</v>
+      </c>
+      <c r="D87">
+        <v>-0.07111409310787041</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01176732868987683</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.002805754082173163</v>
+      </c>
+      <c r="C88">
+        <v>-0.06681532825694156</v>
+      </c>
+      <c r="D88">
+        <v>-0.01356899190679924</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01412458872183667</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.001453830739709388</v>
+      </c>
+      <c r="C89">
+        <v>-0.1465691887013826</v>
+      </c>
+      <c r="D89">
+        <v>0.3429458617277388</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.002354775813521169</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.006949355162065228</v>
+      </c>
+      <c r="C90">
+        <v>-0.1213260973607309</v>
+      </c>
+      <c r="D90">
+        <v>0.3228039584428885</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.0006972618075664107</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01045859199109998</v>
+      </c>
+      <c r="C91">
+        <v>-0.1023438752558439</v>
+      </c>
+      <c r="D91">
+        <v>-0.01924809419466426</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.008057465271053915</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.0008680767786878576</v>
+      </c>
+      <c r="C92">
+        <v>-0.1357240745989531</v>
+      </c>
+      <c r="D92">
+        <v>0.3287797899752232</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.0004464259632245859</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.004766148777649588</v>
+      </c>
+      <c r="C93">
+        <v>-0.1044425871368402</v>
+      </c>
+      <c r="D93">
+        <v>0.3058488282157581</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.003493727464281998</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02256813630263428</v>
+      </c>
+      <c r="C94">
+        <v>-0.1477646748689561</v>
+      </c>
+      <c r="D94">
+        <v>-0.04995049158660764</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.004007559470424795</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01649949397518101</v>
+      </c>
+      <c r="C95">
+        <v>-0.1269639189794128</v>
+      </c>
+      <c r="D95">
+        <v>-0.05700058187999749</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>-0.0003527313500287255</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03590755925094007</v>
+      </c>
+      <c r="C97">
+        <v>-0.2115276635433475</v>
+      </c>
+      <c r="D97">
+        <v>0.01083905127020993</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.002982623274774561</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03661365583053465</v>
+      </c>
+      <c r="C98">
+        <v>-0.2490783423307391</v>
+      </c>
+      <c r="D98">
+        <v>-0.04746599150502435</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.984780873607457</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9822144702948492</v>
+      </c>
+      <c r="C99">
+        <v>0.1163139183241576</v>
+      </c>
+      <c r="D99">
+        <v>0.02768751383049992</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.0008640450517775078</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003242205161427716</v>
+      </c>
+      <c r="C101">
+        <v>-0.04972699151215675</v>
+      </c>
+      <c r="D101">
+        <v>-0.00470042873203136</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
